--- a/XAutomateMVC/TestCases/e2e_1.xlsx
+++ b/XAutomateMVC/TestCases/e2e_1.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <x:si>
+    <x:t>TC Id</x:t>
+  </x:si>
   <x:si>
     <x:t>Test Approach</x:t>
   </x:si>
@@ -22,6 +25,9 @@
     <x:t>Rule Name</x:t>
   </x:si>
   <x:si>
+    <x:t>TestCae Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Schema</x:t>
   </x:si>
   <x:si>
@@ -43,27 +49,33 @@
     <x:t>Column_Name4</x:t>
   </x:si>
   <x:si>
-    <x:t>Column_Name5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Schema6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Table_name7</x:t>
+    <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Schema5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Table_name6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column_Name7</x:t>
   </x:si>
   <x:si>
     <x:t>Column_Name8</x:t>
   </x:si>
   <x:si>
-    <x:t>Column_Name9</x:t>
-  </x:si>
-  <x:si>
     <x:t>Expected Result</x:t>
   </x:si>
   <x:si>
     <x:t>Expected Value</x:t>
   </x:si>
   <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>505</x:t>
+  </x:si>
+  <x:si>
     <x:t>End-2-end_data_reconciliation</x:t>
   </x:si>
   <x:si>
@@ -100,7 +112,7 @@
     <x:t>Employee_Dim</x:t>
   </x:si>
   <x:si>
-    <x:t>employee_ID</x:t>
+    <x:t>employee_id</x:t>
   </x:si>
   <x:si>
     <x:t>Row Count Is 0</x:t>
@@ -167,25 +179,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="e2e_1" displayName="e2e_1" ref="A1:P2" totalsRowShown="0">
-  <x:autoFilter ref="A1:P2"/>
-  <x:tableColumns count="16">
-    <x:tableColumn id="1" name="Test Approach"/>
-    <x:tableColumn id="2" name="Rule Name"/>
-    <x:tableColumn id="3" name="Schema"/>
-    <x:tableColumn id="4" name="Table_name"/>
-    <x:tableColumn id="5" name="Schema1"/>
-    <x:tableColumn id="6" name="Table_name2"/>
-    <x:tableColumn id="7" name="Column_Name"/>
-    <x:tableColumn id="8" name="Column_Name3"/>
-    <x:tableColumn id="9" name="Column_Name4"/>
-    <x:tableColumn id="10" name="Column_Name5"/>
-    <x:tableColumn id="11" name="Schema6"/>
-    <x:tableColumn id="12" name="Table_name7"/>
-    <x:tableColumn id="13" name="Column_Name8"/>
-    <x:tableColumn id="14" name="Column_Name9"/>
-    <x:tableColumn id="15" name="Expected Result"/>
-    <x:tableColumn id="16" name="Expected Value"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="e2e_1" displayName="e2e_1" ref="A1:S2" totalsRowShown="0">
+  <x:autoFilter ref="A1:S2"/>
+  <x:tableColumns count="19">
+    <x:tableColumn id="1" name="TC Id"/>
+    <x:tableColumn id="2" name="Test Approach"/>
+    <x:tableColumn id="3" name="Rule Name"/>
+    <x:tableColumn id="4" name="TestCae Name"/>
+    <x:tableColumn id="5" name="Schema"/>
+    <x:tableColumn id="6" name="Table_name"/>
+    <x:tableColumn id="7" name="Schema1"/>
+    <x:tableColumn id="8" name="Table_name2"/>
+    <x:tableColumn id="9" name="Column_Name"/>
+    <x:tableColumn id="10" name="Column_Name3"/>
+    <x:tableColumn id="11" name="Column_Name4"/>
+    <x:tableColumn id="12" name="Value"/>
+    <x:tableColumn id="13" name="Schema5"/>
+    <x:tableColumn id="14" name="Table_name6"/>
+    <x:tableColumn id="15" name="Column_Name7"/>
+    <x:tableColumn id="16" name="Column_Name8"/>
+    <x:tableColumn id="17" name="Expected Result"/>
+    <x:tableColumn id="18" name="Expected Value"/>
+    <x:tableColumn id="19" name="Description"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -479,13 +494,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P2"/>
+  <x:dimension ref="A1:S2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:16">
+    <x:row r="1" spans="1:19">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -534,52 +549,67 @@
       <x:c r="P1" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:16">
+    <x:row r="2" spans="1:19">
       <x:c r="A2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
